--- a/LeetCode_Questions.xlsx
+++ b/LeetCode_Questions.xlsx
@@ -286,7 +286,7 @@
     <t>Strings</t>
   </si>
   <si>
-    <t>Q 63</t>
+    <t>Q 63 ✅</t>
   </si>
   <si>
     <t>Jewels and Stones</t>
@@ -295,7 +295,7 @@
     <t>https://leetcode.com/problems/jewels-and-stones/</t>
   </si>
   <si>
-    <t>Q 64</t>
+    <t>Q 64 ✅</t>
   </si>
   <si>
     <t>Check Sentence Is Pangram</t>
@@ -343,7 +343,7 @@
     <t>Math</t>
   </si>
   <si>
-    <t>Q 65</t>
+    <t>Q 65 ✅</t>
   </si>
   <si>
     <t>Happy Number</t>
@@ -1055,6 +1055,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="C1:C103" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="C1:C103"/>
+  <tableColumns count="1">
+    <tableColumn name="Question Name" id="1" totalsRowLabel="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1461,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3219,5 +3229,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/LeetCode_Questions.xlsx
+++ b/LeetCode_Questions.xlsx
@@ -304,7 +304,7 @@
     <t>https://leetcode.com/problems/check-if-the-sentence-is-pangram/</t>
   </si>
   <si>
-    <t>Q 69</t>
+    <t>Q 69 ✅</t>
   </si>
   <si>
     <t>Sort the People</t>
@@ -400,7 +400,7 @@
     <t>Hashing</t>
   </si>
   <si>
-    <t>Q 67</t>
+    <t>Q 67✅</t>
   </si>
   <si>
     <t>Two Sum</t>
